--- a/biology/Écologie/Urie_Bronfenbrenner/Urie_Bronfenbrenner.xlsx
+++ b/biology/Écologie/Urie_Bronfenbrenner/Urie_Bronfenbrenner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Urie Bronfenbrenner (né le 29 avril 1917 à Moscou[1] et mort le 25 septembre 2005) est un psychologue et un chercheur américain d'origine russe, arrivé aux États-Unis avec sa famille à l'âge de 6 ans. Il est connu pour sa théorie du modèle écologique de développement humain[2], qu'il initie dans les années 1970 (voir aussi Psychologie du développement). 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urie Bronfenbrenner (né le 29 avril 1917 à Moscou et mort le 25 septembre 2005) est un psychologue et un chercheur américain d'origine russe, arrivé aux États-Unis avec sa famille à l'âge de 6 ans. Il est connu pour sa théorie du modèle écologique de développement humain, qu'il initie dans les années 1970 (voir aussi Psychologie du développement). 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1972 : Two Worlds of Childhood : U.S. and U.S.S.R.. Simon &amp; Schuster.  (ISBN 0-671-21238-9)
 1973 : Influencing Human Development. Hinsdale, Ill., Dryden Press.  (ISBN 0-03-089176-0)
